--- a/UnitTests/FE640_set2_20.xlsx
+++ b/UnitTests/FE640_set2_20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\todd\Documents\forestry\OSU\FE 640\UnitTests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7245B4D8-1225-4132-BEE9-310BE8FADEE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E28AD187-349B-41EC-A6A1-533A293DE50E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="495" windowWidth="20055" windowHeight="12075" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2430" yWindow="840" windowWidth="20055" windowHeight="12075" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="units" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>1st Period Volume</t>
   </si>
@@ -122,6 +122,12 @@
   <si>
     <t>record to record travel</t>
   </si>
+  <si>
+    <t>tabu search</t>
+  </si>
+  <si>
+    <t>TU</t>
+  </si>
 </sst>
 </file>
 
@@ -130,7 +136,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -162,7 +168,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -258,11 +264,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -311,16 +339,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -335,6 +357,24 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -48711,35 +48751,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="E1" s="1" t="s">
+      <c r="C1" s="35"/>
+      <c r="D1" s="36"/>
+      <c r="F1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>21</v>
       </c>
@@ -48749,20 +48791,23 @@
       <c r="C2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -48772,24 +48817,27 @@
       <c r="C3" s="8">
         <v>439588</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="8">
+        <v>439596</v>
+      </c>
+      <c r="F3">
         <f>$B$15-B3</f>
         <v>195</v>
       </c>
-      <c r="F3" s="5">
-        <f>SUMSQ(E3:E7)</f>
+      <c r="G3" s="5">
+        <f>SUMSQ(F3:F7)</f>
         <v>175174.62219153289</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <f>$B$15-C3</f>
         <v>212</v>
       </c>
-      <c r="I3" s="5">
-        <f>SUMSQ(H3:H7)</f>
+      <c r="J3" s="5">
+        <f>SUMSQ(I3:I7)</f>
         <v>165607.18852096586</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>2</v>
       </c>
@@ -48799,16 +48847,19 @@
       <c r="C4" s="8">
         <v>439611.89996337902</v>
       </c>
-      <c r="E4">
+      <c r="D4" s="8">
+        <v>439630.10052490199</v>
+      </c>
+      <c r="F4">
         <f>$B$15-B4</f>
         <v>188.1005249019945</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <f>$B$15-C4</f>
         <v>188.10003662097733</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="7">
         <v>3</v>
       </c>
@@ -48818,18 +48869,21 @@
       <c r="C5" s="8">
         <v>439612.94015502901</v>
       </c>
-      <c r="E5">
+      <c r="D5" s="8">
+        <v>439618.01123046898</v>
+      </c>
+      <c r="F5">
         <f>$B$15-B5</f>
         <v>178.61001586902421</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="H5">
+      <c r="G5" s="1"/>
+      <c r="I5">
         <f>$B$15-C5</f>
         <v>187.05984497099416</v>
       </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="7">
         <v>4</v>
       </c>
@@ -48839,18 +48893,21 @@
       <c r="C6" s="8">
         <v>439635.07897949201</v>
       </c>
-      <c r="E6">
+      <c r="D6" s="8">
+        <v>439630.68551635701</v>
+      </c>
+      <c r="F6">
         <f>$B$15-B6</f>
         <v>184.69403076200979</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="H6">
+      <c r="G6" s="4"/>
+      <c r="I6">
         <f>$B$15-C6</f>
         <v>164.92102050798712</v>
       </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="7">
         <v>5</v>
       </c>
@@ -48860,29 +48917,36 @@
       <c r="C7" s="8">
         <v>439648.04199218802</v>
       </c>
-      <c r="E7">
+      <c r="D7" s="8">
+        <v>439582.35070800799</v>
+      </c>
+      <c r="F7">
         <f>$B$15-B7</f>
         <v>189.08831787097733</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <f>$B$15-C7</f>
         <v>151.95800781197613</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="23">
         <f t="array" ref="B8">MAX(ABS(B3:B7/AVERAGE(B3:B7))) - 1</f>
         <v>1.9309174012605013E-5</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="22">
         <f t="array" ref="C8">MAX(ABS(C3:C7/AVERAGE(C3:C7))) - 1</f>
         <v>6.5624464721025788E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D8" s="22">
+        <f t="array" ref="D8">MAX(ABS(D3:D7/AVERAGE(D3:D7))) - 1</f>
+        <v>4.3802137782433803E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="14" t="s">
         <v>23</v>
       </c>
@@ -48894,8 +48958,15 @@
         <f>MAX(C3:C7)-MIN(C3:C7)</f>
         <v>60.041992188023869</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D9" s="20">
+        <f>MAX(D3:D7)-MIN(D3:D7)</f>
+        <v>48.334808349027298</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
         <v>16</v>
       </c>
@@ -48907,8 +48978,18 @@
         <f>MIN(C3:C7)</f>
         <v>439588</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D10" s="8">
+        <f>MIN(D3:D7)</f>
+        <v>439582.35070800799</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="16" t="s">
         <v>17</v>
       </c>
@@ -48920,8 +49001,20 @@
         <f>AVERAGE(C3:C7)</f>
         <v>439619.19221801759</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D11" s="8">
+        <f>AVERAGE(D3:D7)</f>
+        <v>439611.42959594715</v>
+      </c>
+      <c r="F11" s="30">
+        <f>$D$15-D3</f>
+        <v>204</v>
+      </c>
+      <c r="G11" s="21">
+        <f>SUMSQ(F11:F15) / 1000000</f>
+        <v>0.17964035254990679</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
         <v>18</v>
       </c>
@@ -48933,8 +49026,18 @@
         <f>MAX(C3:C7)</f>
         <v>439648.04199218802</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D12" s="8">
+        <f>MAX(D3:D7)</f>
+        <v>439630.68551635701</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" ref="F12:F15" si="0">$D$15-D4</f>
+        <v>169.8994750980055</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>19</v>
       </c>
@@ -48946,90 +49049,139 @@
         <f>_xlfn.STDEV.P(C3:C7)</f>
         <v>20.736047810583564</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D13" s="13">
+        <f>_xlfn.STDEV.P(D3:D7)</f>
+        <v>19.216483167934584</v>
+      </c>
+      <c r="F13" s="30">
+        <f t="shared" si="0"/>
+        <v>181.98876953101717</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="O13" s="30"/>
+      <c r="P13" s="21"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="F14" s="30">
+        <f t="shared" si="0"/>
+        <v>169.31448364298558</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="O14" s="30"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B15">
         <v>439800</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="27"/>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="30"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
+      <c r="D15">
+        <v>439800</v>
+      </c>
+      <c r="F15" s="30">
+        <f t="shared" si="0"/>
+        <v>217.64929199201288</v>
+      </c>
+      <c r="O15" s="30"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O16" s="30"/>
+      <c r="P16" s="4"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="30"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="32"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="17"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
+      <c r="D22" s="17"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="17"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="26"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="17"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="27"/>
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="29"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="30"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" s="17"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="24"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="17"/>
       <c r="B30" s="17"/>
       <c r="C30" s="17"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="17"/>
       <c r="B31" s="17"/>
       <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A25:C25"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -49040,13 +49192,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A2:H2002"/>
+  <dimension ref="A2:I2002"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -49056,14 +49210,20 @@
       <c r="C2" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="D2" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0</v>
       </c>
@@ -49073,6 +49233,9 @@
       <c r="C3">
         <v>5</v>
       </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
       <c r="F3" s="1" t="s">
         <v>7</v>
       </c>
@@ -49082,8 +49245,11 @@
       <c r="H3" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -49092,6 +49258,9 @@
       </c>
       <c r="C4">
         <v>2</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -49104,8 +49273,12 @@
         <f>COUNTIF(C$3:C$2002,$F4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <f>COUNTIF(D$3:D$2002,$F4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -49115,19 +49288,26 @@
       <c r="C5">
         <v>2</v>
       </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:H9" si="0">COUNTIF(B$3:B$2002,$F5)</f>
+        <f t="shared" ref="G5:I9" si="0">COUNTIF(B$3:B$2002,$F5)</f>
         <v>595</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
         <v>614</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -49136,6 +49316,9 @@
       </c>
       <c r="C6">
         <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -49148,8 +49331,12 @@
         <f t="shared" si="0"/>
         <v>491</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -49158,6 +49345,9 @@
       </c>
       <c r="C7">
         <v>3</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="F7">
         <v>3</v>
@@ -49170,8 +49360,12 @@
         <f t="shared" si="0"/>
         <v>371</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -49180,6 +49374,9 @@
       </c>
       <c r="C8">
         <v>2</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
       </c>
       <c r="F8">
         <v>4</v>
@@ -49192,8 +49389,12 @@
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -49202,6 +49403,9 @@
       </c>
       <c r="C9">
         <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -49214,8 +49418,12 @@
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -49224,6 +49432,9 @@
       </c>
       <c r="C10">
         <v>2</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>11</v>
@@ -49236,8 +49447,12 @@
         <f>SUM(H4:H9)</f>
         <v>2000</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <f>SUM(I4:I9)</f>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -49247,8 +49462,11 @@
       <c r="C11">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -49258,8 +49476,11 @@
       <c r="C12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -49269,8 +49490,11 @@
       <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -49280,8 +49504,11 @@
       <c r="C14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -49291,8 +49518,11 @@
       <c r="C15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -49302,8 +49532,11 @@
       <c r="C16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -49313,8 +49546,11 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -49324,8 +49560,11 @@
       <c r="C18">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -49335,8 +49574,11 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -49346,8 +49588,11 @@
       <c r="C20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -49357,8 +49602,11 @@
       <c r="C21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -49368,8 +49616,11 @@
       <c r="C22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -49379,8 +49630,11 @@
       <c r="C23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -49390,8 +49644,11 @@
       <c r="C24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -49401,8 +49658,11 @@
       <c r="C25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -49412,8 +49672,11 @@
       <c r="C26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -49423,8 +49686,11 @@
       <c r="C27">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -49434,8 +49700,11 @@
       <c r="C28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -49445,8 +49714,11 @@
       <c r="C29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -49456,8 +49728,11 @@
       <c r="C30">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -49467,8 +49742,11 @@
       <c r="C31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -49478,8 +49756,11 @@
       <c r="C32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -49489,8 +49770,11 @@
       <c r="C33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -49500,8 +49784,11 @@
       <c r="C34">
         <v>3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -49511,8 +49798,11 @@
       <c r="C35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -49522,8 +49812,11 @@
       <c r="C36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -49533,8 +49826,11 @@
       <c r="C37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -49544,8 +49840,11 @@
       <c r="C38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -49555,8 +49854,11 @@
       <c r="C39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -49566,8 +49868,11 @@
       <c r="C40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>38</v>
       </c>
@@ -49577,8 +49882,11 @@
       <c r="C41">
         <v>5</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>39</v>
       </c>
@@ -49588,8 +49896,11 @@
       <c r="C42">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>40</v>
       </c>
@@ -49599,8 +49910,11 @@
       <c r="C43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>41</v>
       </c>
@@ -49610,8 +49924,11 @@
       <c r="C44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>42</v>
       </c>
@@ -49621,8 +49938,11 @@
       <c r="C45">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>43</v>
       </c>
@@ -49632,8 +49952,11 @@
       <c r="C46">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>44</v>
       </c>
@@ -49643,8 +49966,11 @@
       <c r="C47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>45</v>
       </c>
@@ -49654,8 +49980,11 @@
       <c r="C48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>46</v>
       </c>
@@ -49665,8 +49994,11 @@
       <c r="C49">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>47</v>
       </c>
@@ -49676,8 +50008,11 @@
       <c r="C50">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>48</v>
       </c>
@@ -49687,8 +50022,11 @@
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>49</v>
       </c>
@@ -49698,8 +50036,11 @@
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>50</v>
       </c>
@@ -49709,8 +50050,11 @@
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>51</v>
       </c>
@@ -49720,8 +50064,11 @@
       <c r="C54">
         <v>4</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>52</v>
       </c>
@@ -49731,8 +50078,11 @@
       <c r="C55">
         <v>2</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>53</v>
       </c>
@@ -49742,8 +50092,11 @@
       <c r="C56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>54</v>
       </c>
@@ -49753,8 +50106,11 @@
       <c r="C57">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>55</v>
       </c>
@@ -49764,8 +50120,11 @@
       <c r="C58">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>56</v>
       </c>
@@ -49775,8 +50134,11 @@
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>57</v>
       </c>
@@ -49786,8 +50148,11 @@
       <c r="C60">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>58</v>
       </c>
@@ -49797,8 +50162,11 @@
       <c r="C61">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>59</v>
       </c>
@@ -49808,8 +50176,11 @@
       <c r="C62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>60</v>
       </c>
@@ -49819,8 +50190,11 @@
       <c r="C63">
         <v>4</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>61</v>
       </c>
@@ -49830,8 +50204,11 @@
       <c r="C64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>62</v>
       </c>
@@ -49841,8 +50218,11 @@
       <c r="C65">
         <v>2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>63</v>
       </c>
@@ -49852,8 +50232,11 @@
       <c r="C66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>64</v>
       </c>
@@ -49863,8 +50246,11 @@
       <c r="C67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>65</v>
       </c>
@@ -49874,8 +50260,11 @@
       <c r="C68">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>66</v>
       </c>
@@ -49885,8 +50274,11 @@
       <c r="C69">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>67</v>
       </c>
@@ -49896,8 +50288,11 @@
       <c r="C70">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>68</v>
       </c>
@@ -49907,8 +50302,11 @@
       <c r="C71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>69</v>
       </c>
@@ -49918,8 +50316,11 @@
       <c r="C72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>70</v>
       </c>
@@ -49929,8 +50330,11 @@
       <c r="C73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>71</v>
       </c>
@@ -49940,8 +50344,11 @@
       <c r="C74">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>72</v>
       </c>
@@ -49951,8 +50358,11 @@
       <c r="C75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>73</v>
       </c>
@@ -49962,8 +50372,11 @@
       <c r="C76">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>74</v>
       </c>
@@ -49973,8 +50386,11 @@
       <c r="C77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>75</v>
       </c>
@@ -49984,8 +50400,11 @@
       <c r="C78">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>76</v>
       </c>
@@ -49995,8 +50414,11 @@
       <c r="C79">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>77</v>
       </c>
@@ -50006,8 +50428,11 @@
       <c r="C80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>78</v>
       </c>
@@ -50017,8 +50442,11 @@
       <c r="C81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>79</v>
       </c>
@@ -50028,8 +50456,11 @@
       <c r="C82">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>80</v>
       </c>
@@ -50039,8 +50470,11 @@
       <c r="C83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>81</v>
       </c>
@@ -50050,8 +50484,11 @@
       <c r="C84">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>82</v>
       </c>
@@ -50061,8 +50498,11 @@
       <c r="C85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>83</v>
       </c>
@@ -50072,8 +50512,11 @@
       <c r="C86">
         <v>2</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>84</v>
       </c>
@@ -50083,8 +50526,11 @@
       <c r="C87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>85</v>
       </c>
@@ -50094,8 +50540,11 @@
       <c r="C88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>86</v>
       </c>
@@ -50105,8 +50554,11 @@
       <c r="C89">
         <v>4</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>87</v>
       </c>
@@ -50116,8 +50568,11 @@
       <c r="C90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>88</v>
       </c>
@@ -50127,8 +50582,11 @@
       <c r="C91">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>89</v>
       </c>
@@ -50138,8 +50596,11 @@
       <c r="C92">
         <v>1</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>90</v>
       </c>
@@ -50149,8 +50610,11 @@
       <c r="C93">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>91</v>
       </c>
@@ -50160,8 +50624,11 @@
       <c r="C94">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>92</v>
       </c>
@@ -50171,8 +50638,11 @@
       <c r="C95">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>93</v>
       </c>
@@ -50182,8 +50652,11 @@
       <c r="C96">
         <v>2</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>94</v>
       </c>
@@ -50193,8 +50666,11 @@
       <c r="C97">
         <v>5</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>95</v>
       </c>
@@ -50204,8 +50680,11 @@
       <c r="C98">
         <v>1</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>96</v>
       </c>
@@ -50215,8 +50694,11 @@
       <c r="C99">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>97</v>
       </c>
@@ -50226,8 +50708,11 @@
       <c r="C100">
         <v>4</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>98</v>
       </c>
@@ -50237,8 +50722,11 @@
       <c r="C101">
         <v>1</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>99</v>
       </c>
@@ -50248,8 +50736,11 @@
       <c r="C102">
         <v>3</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>100</v>
       </c>
@@ -50259,8 +50750,11 @@
       <c r="C103">
         <v>2</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>101</v>
       </c>
@@ -50270,8 +50764,11 @@
       <c r="C104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>102</v>
       </c>
@@ -50281,8 +50778,11 @@
       <c r="C105">
         <v>1</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>103</v>
       </c>
@@ -50292,8 +50792,11 @@
       <c r="C106">
         <v>2</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>104</v>
       </c>
@@ -50303,8 +50806,11 @@
       <c r="C107">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>105</v>
       </c>
@@ -50314,8 +50820,11 @@
       <c r="C108">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>106</v>
       </c>
@@ -50325,8 +50834,11 @@
       <c r="C109">
         <v>2</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>107</v>
       </c>
@@ -50336,8 +50848,11 @@
       <c r="C110">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>108</v>
       </c>
@@ -50347,8 +50862,11 @@
       <c r="C111">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>109</v>
       </c>
@@ -50358,8 +50876,11 @@
       <c r="C112">
         <v>2</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>110</v>
       </c>
@@ -50369,8 +50890,11 @@
       <c r="C113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>111</v>
       </c>
@@ -50380,8 +50904,11 @@
       <c r="C114">
         <v>1</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>112</v>
       </c>
@@ -50391,8 +50918,11 @@
       <c r="C115">
         <v>1</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>113</v>
       </c>
@@ -50402,8 +50932,11 @@
       <c r="C116">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>114</v>
       </c>
@@ -50413,8 +50946,11 @@
       <c r="C117">
         <v>4</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>115</v>
       </c>
@@ -50424,8 +50960,11 @@
       <c r="C118">
         <v>3</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>116</v>
       </c>
@@ -50435,8 +50974,11 @@
       <c r="C119">
         <v>1</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>117</v>
       </c>
@@ -50446,8 +50988,11 @@
       <c r="C120">
         <v>2</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>118</v>
       </c>
@@ -50457,8 +51002,11 @@
       <c r="C121">
         <v>1</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>119</v>
       </c>
@@ -50468,8 +51016,11 @@
       <c r="C122">
         <v>2</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>120</v>
       </c>
@@ -50479,8 +51030,11 @@
       <c r="C123">
         <v>1</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>121</v>
       </c>
@@ -50490,8 +51044,11 @@
       <c r="C124">
         <v>2</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>122</v>
       </c>
@@ -50501,8 +51058,11 @@
       <c r="C125">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>123</v>
       </c>
@@ -50512,8 +51072,11 @@
       <c r="C126">
         <v>5</v>
       </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>124</v>
       </c>
@@ -50523,8 +51086,11 @@
       <c r="C127">
         <v>2</v>
       </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>125</v>
       </c>
@@ -50534,8 +51100,11 @@
       <c r="C128">
         <v>1</v>
       </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>126</v>
       </c>
@@ -50545,8 +51114,11 @@
       <c r="C129">
         <v>2</v>
       </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>127</v>
       </c>
@@ -50556,8 +51128,11 @@
       <c r="C130">
         <v>1</v>
       </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>128</v>
       </c>
@@ -50567,8 +51142,11 @@
       <c r="C131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>129</v>
       </c>
@@ -50578,8 +51156,11 @@
       <c r="C132">
         <v>5</v>
       </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>130</v>
       </c>
@@ -50589,8 +51170,11 @@
       <c r="C133">
         <v>1</v>
       </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>131</v>
       </c>
@@ -50600,8 +51184,11 @@
       <c r="C134">
         <v>3</v>
       </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>132</v>
       </c>
@@ -50611,8 +51198,11 @@
       <c r="C135">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>133</v>
       </c>
@@ -50622,8 +51212,11 @@
       <c r="C136">
         <v>1</v>
       </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>134</v>
       </c>
@@ -50633,8 +51226,11 @@
       <c r="C137">
         <v>4</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>135</v>
       </c>
@@ -50644,8 +51240,11 @@
       <c r="C138">
         <v>3</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>136</v>
       </c>
@@ -50655,8 +51254,11 @@
       <c r="C139">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>137</v>
       </c>
@@ -50666,8 +51268,11 @@
       <c r="C140">
         <v>1</v>
       </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>138</v>
       </c>
@@ -50677,8 +51282,11 @@
       <c r="C141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>139</v>
       </c>
@@ -50688,8 +51296,11 @@
       <c r="C142">
         <v>1</v>
       </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>140</v>
       </c>
@@ -50699,8 +51310,11 @@
       <c r="C143">
         <v>2</v>
       </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>141</v>
       </c>
@@ -50710,8 +51324,11 @@
       <c r="C144">
         <v>3</v>
       </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>142</v>
       </c>
@@ -50721,8 +51338,11 @@
       <c r="C145">
         <v>2</v>
       </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>143</v>
       </c>
@@ -50732,8 +51352,11 @@
       <c r="C146">
         <v>3</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>144</v>
       </c>
@@ -50743,8 +51366,11 @@
       <c r="C147">
         <v>1</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>145</v>
       </c>
@@ -50754,8 +51380,11 @@
       <c r="C148">
         <v>3</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>146</v>
       </c>
@@ -50765,8 +51394,11 @@
       <c r="C149">
         <v>3</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>147</v>
       </c>
@@ -50776,8 +51408,11 @@
       <c r="C150">
         <v>1</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>148</v>
       </c>
@@ -50787,8 +51422,11 @@
       <c r="C151">
         <v>4</v>
       </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>149</v>
       </c>
@@ -50798,8 +51436,11 @@
       <c r="C152">
         <v>1</v>
       </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>150</v>
       </c>
@@ -50809,8 +51450,11 @@
       <c r="C153">
         <v>2</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>151</v>
       </c>
@@ -50820,8 +51464,11 @@
       <c r="C154">
         <v>5</v>
       </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>152</v>
       </c>
@@ -50831,8 +51478,11 @@
       <c r="C155">
         <v>3</v>
       </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>153</v>
       </c>
@@ -50842,8 +51492,11 @@
       <c r="C156">
         <v>3</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>154</v>
       </c>
@@ -50853,8 +51506,11 @@
       <c r="C157">
         <v>1</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>155</v>
       </c>
@@ -50864,8 +51520,11 @@
       <c r="C158">
         <v>2</v>
       </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>156</v>
       </c>
@@ -50875,8 +51534,11 @@
       <c r="C159">
         <v>1</v>
       </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>157</v>
       </c>
@@ -50886,8 +51548,11 @@
       <c r="C160">
         <v>2</v>
       </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>158</v>
       </c>
@@ -50897,8 +51562,11 @@
       <c r="C161">
         <v>1</v>
       </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>159</v>
       </c>
@@ -50908,8 +51576,11 @@
       <c r="C162">
         <v>3</v>
       </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>160</v>
       </c>
@@ -50919,8 +51590,11 @@
       <c r="C163">
         <v>2</v>
       </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>161</v>
       </c>
@@ -50930,8 +51604,11 @@
       <c r="C164">
         <v>1</v>
       </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>162</v>
       </c>
@@ -50941,8 +51618,11 @@
       <c r="C165">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>163</v>
       </c>
@@ -50952,8 +51632,11 @@
       <c r="C166">
         <v>1</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>164</v>
       </c>
@@ -50963,8 +51646,11 @@
       <c r="C167">
         <v>4</v>
       </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>165</v>
       </c>
@@ -50974,8 +51660,11 @@
       <c r="C168">
         <v>2</v>
       </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>166</v>
       </c>
@@ -50985,8 +51674,11 @@
       <c r="C169">
         <v>4</v>
       </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>167</v>
       </c>
@@ -50996,8 +51688,11 @@
       <c r="C170">
         <v>1</v>
       </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>168</v>
       </c>
@@ -51007,8 +51702,11 @@
       <c r="C171">
         <v>2</v>
       </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>169</v>
       </c>
@@ -51018,8 +51716,11 @@
       <c r="C172">
         <v>5</v>
       </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>170</v>
       </c>
@@ -51029,8 +51730,11 @@
       <c r="C173">
         <v>5</v>
       </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>171</v>
       </c>
@@ -51040,8 +51744,11 @@
       <c r="C174">
         <v>1</v>
       </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>172</v>
       </c>
@@ -51051,8 +51758,11 @@
       <c r="C175">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>173</v>
       </c>
@@ -51062,8 +51772,11 @@
       <c r="C176">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>174</v>
       </c>
@@ -51073,8 +51786,11 @@
       <c r="C177">
         <v>3</v>
       </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>175</v>
       </c>
@@ -51084,8 +51800,11 @@
       <c r="C178">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>176</v>
       </c>
@@ -51095,8 +51814,11 @@
       <c r="C179">
         <v>4</v>
       </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D179">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>177</v>
       </c>
@@ -51106,8 +51828,11 @@
       <c r="C180">
         <v>1</v>
       </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>178</v>
       </c>
@@ -51117,8 +51842,11 @@
       <c r="C181">
         <v>2</v>
       </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>179</v>
       </c>
@@ -51128,8 +51856,11 @@
       <c r="C182">
         <v>3</v>
       </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>180</v>
       </c>
@@ -51139,8 +51870,11 @@
       <c r="C183">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>181</v>
       </c>
@@ -51150,8 +51884,11 @@
       <c r="C184">
         <v>5</v>
       </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D184">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>182</v>
       </c>
@@ -51161,8 +51898,11 @@
       <c r="C185">
         <v>4</v>
       </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D185">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>183</v>
       </c>
@@ -51172,8 +51912,11 @@
       <c r="C186">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>184</v>
       </c>
@@ -51183,8 +51926,11 @@
       <c r="C187">
         <v>2</v>
       </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>185</v>
       </c>
@@ -51194,8 +51940,11 @@
       <c r="C188">
         <v>5</v>
       </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>186</v>
       </c>
@@ -51205,8 +51954,11 @@
       <c r="C189">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D189">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>187</v>
       </c>
@@ -51216,8 +51968,11 @@
       <c r="C190">
         <v>4</v>
       </c>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D190">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>188</v>
       </c>
@@ -51227,8 +51982,11 @@
       <c r="C191">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D191">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>189</v>
       </c>
@@ -51238,8 +51996,11 @@
       <c r="C192">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>190</v>
       </c>
@@ -51249,8 +52010,11 @@
       <c r="C193">
         <v>2</v>
       </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>191</v>
       </c>
@@ -51260,8 +52024,11 @@
       <c r="C194">
         <v>3</v>
       </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D194">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>192</v>
       </c>
@@ -51271,8 +52038,11 @@
       <c r="C195">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>193</v>
       </c>
@@ -51282,8 +52052,11 @@
       <c r="C196">
         <v>1</v>
       </c>
-    </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>194</v>
       </c>
@@ -51293,8 +52066,11 @@
       <c r="C197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>195</v>
       </c>
@@ -51304,8 +52080,11 @@
       <c r="C198">
         <v>4</v>
       </c>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D198">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>196</v>
       </c>
@@ -51315,8 +52094,11 @@
       <c r="C199">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D199">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>197</v>
       </c>
@@ -51326,8 +52108,11 @@
       <c r="C200">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D200">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>198</v>
       </c>
@@ -51337,8 +52122,11 @@
       <c r="C201">
         <v>5</v>
       </c>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D201">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>199</v>
       </c>
@@ -51348,8 +52136,11 @@
       <c r="C202">
         <v>1</v>
       </c>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D202">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>200</v>
       </c>
@@ -51359,8 +52150,11 @@
       <c r="C203">
         <v>3</v>
       </c>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D203">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>201</v>
       </c>
@@ -51370,8 +52164,11 @@
       <c r="C204">
         <v>3</v>
       </c>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>202</v>
       </c>
@@ -51381,8 +52178,11 @@
       <c r="C205">
         <v>5</v>
       </c>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>203</v>
       </c>
@@ -51392,8 +52192,11 @@
       <c r="C206">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>204</v>
       </c>
@@ -51403,8 +52206,11 @@
       <c r="C207">
         <v>2</v>
       </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>205</v>
       </c>
@@ -51414,8 +52220,11 @@
       <c r="C208">
         <v>2</v>
       </c>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>206</v>
       </c>
@@ -51425,8 +52234,11 @@
       <c r="C209">
         <v>4</v>
       </c>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>207</v>
       </c>
@@ -51436,8 +52248,11 @@
       <c r="C210">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D210">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>208</v>
       </c>
@@ -51447,8 +52262,11 @@
       <c r="C211">
         <v>3</v>
       </c>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D211">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>209</v>
       </c>
@@ -51458,8 +52276,11 @@
       <c r="C212">
         <v>5</v>
       </c>
-    </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D212">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>210</v>
       </c>
@@ -51469,8 +52290,11 @@
       <c r="C213">
         <v>2</v>
       </c>
-    </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>211</v>
       </c>
@@ -51480,8 +52304,11 @@
       <c r="C214">
         <v>2</v>
       </c>
-    </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D214">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>212</v>
       </c>
@@ -51491,8 +52318,11 @@
       <c r="C215">
         <v>4</v>
       </c>
-    </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>213</v>
       </c>
@@ -51502,8 +52332,11 @@
       <c r="C216">
         <v>2</v>
       </c>
-    </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D216">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>214</v>
       </c>
@@ -51513,8 +52346,11 @@
       <c r="C217">
         <v>5</v>
       </c>
-    </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>215</v>
       </c>
@@ -51524,8 +52360,11 @@
       <c r="C218">
         <v>2</v>
       </c>
-    </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D218">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>216</v>
       </c>
@@ -51535,8 +52374,11 @@
       <c r="C219">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D219">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>217</v>
       </c>
@@ -51546,8 +52388,11 @@
       <c r="C220">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D220">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>218</v>
       </c>
@@ -51557,8 +52402,11 @@
       <c r="C221">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>219</v>
       </c>
@@ -51568,8 +52416,11 @@
       <c r="C222">
         <v>5</v>
       </c>
-    </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D222">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>220</v>
       </c>
@@ -51579,8 +52430,11 @@
       <c r="C223">
         <v>5</v>
       </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>221</v>
       </c>
@@ -51590,8 +52444,11 @@
       <c r="C224">
         <v>1</v>
       </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>222</v>
       </c>
@@ -51601,8 +52458,11 @@
       <c r="C225">
         <v>4</v>
       </c>
-    </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>223</v>
       </c>
@@ -51612,8 +52472,11 @@
       <c r="C226">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>224</v>
       </c>
@@ -51623,8 +52486,11 @@
       <c r="C227">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>225</v>
       </c>
@@ -51634,8 +52500,11 @@
       <c r="C228">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>226</v>
       </c>
@@ -51645,8 +52514,11 @@
       <c r="C229">
         <v>5</v>
       </c>
-    </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D229">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>227</v>
       </c>
@@ -51656,8 +52528,11 @@
       <c r="C230">
         <v>4</v>
       </c>
-    </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D230">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>228</v>
       </c>
@@ -51667,8 +52542,11 @@
       <c r="C231">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D231">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>229</v>
       </c>
@@ -51678,8 +52556,11 @@
       <c r="C232">
         <v>2</v>
       </c>
-    </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D232">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>230</v>
       </c>
@@ -51689,8 +52570,11 @@
       <c r="C233">
         <v>2</v>
       </c>
-    </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D233">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>231</v>
       </c>
@@ -51700,8 +52584,11 @@
       <c r="C234">
         <v>3</v>
       </c>
-    </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D234">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>232</v>
       </c>
@@ -51711,8 +52598,11 @@
       <c r="C235">
         <v>4</v>
       </c>
-    </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D235">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>233</v>
       </c>
@@ -51722,8 +52612,11 @@
       <c r="C236">
         <v>2</v>
       </c>
-    </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>234</v>
       </c>
@@ -51733,8 +52626,11 @@
       <c r="C237">
         <v>1</v>
       </c>
-    </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D237">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>235</v>
       </c>
@@ -51744,8 +52640,11 @@
       <c r="C238">
         <v>2</v>
       </c>
-    </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>236</v>
       </c>
@@ -51755,8 +52654,11 @@
       <c r="C239">
         <v>2</v>
       </c>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D239">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>237</v>
       </c>
@@ -51766,8 +52668,11 @@
       <c r="C240">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>238</v>
       </c>
@@ -51777,8 +52682,11 @@
       <c r="C241">
         <v>1</v>
       </c>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>239</v>
       </c>
@@ -51788,8 +52696,11 @@
       <c r="C242">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>240</v>
       </c>
@@ -51799,8 +52710,11 @@
       <c r="C243">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D243">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>241</v>
       </c>
@@ -51810,8 +52724,11 @@
       <c r="C244">
         <v>3</v>
       </c>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>242</v>
       </c>
@@ -51821,8 +52738,11 @@
       <c r="C245">
         <v>2</v>
       </c>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D245">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>243</v>
       </c>
@@ -51832,8 +52752,11 @@
       <c r="C246">
         <v>1</v>
       </c>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D246">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>244</v>
       </c>
@@ -51843,8 +52766,11 @@
       <c r="C247">
         <v>1</v>
       </c>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D247">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>245</v>
       </c>
@@ -51854,8 +52780,11 @@
       <c r="C248">
         <v>3</v>
       </c>
-    </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>246</v>
       </c>
@@ -51865,8 +52794,11 @@
       <c r="C249">
         <v>3</v>
       </c>
-    </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D249">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>247</v>
       </c>
@@ -51876,8 +52808,11 @@
       <c r="C250">
         <v>2</v>
       </c>
-    </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D250">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>248</v>
       </c>
@@ -51887,8 +52822,11 @@
       <c r="C251">
         <v>1</v>
       </c>
-    </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>249</v>
       </c>
@@ -51898,8 +52836,11 @@
       <c r="C252">
         <v>2</v>
       </c>
-    </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D252">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>250</v>
       </c>
@@ -51909,8 +52850,11 @@
       <c r="C253">
         <v>1</v>
       </c>
-    </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D253">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>251</v>
       </c>
@@ -51920,8 +52864,11 @@
       <c r="C254">
         <v>4</v>
       </c>
-    </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D254">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>252</v>
       </c>
@@ -51931,8 +52878,11 @@
       <c r="C255">
         <v>3</v>
       </c>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D255">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>253</v>
       </c>
@@ -51942,8 +52892,11 @@
       <c r="C256">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>254</v>
       </c>
@@ -51953,8 +52906,11 @@
       <c r="C257">
         <v>2</v>
       </c>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D257">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>255</v>
       </c>
@@ -51964,8 +52920,11 @@
       <c r="C258">
         <v>5</v>
       </c>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D258">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>256</v>
       </c>
@@ -51975,8 +52934,11 @@
       <c r="C259">
         <v>2</v>
       </c>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>257</v>
       </c>
@@ -51986,8 +52948,11 @@
       <c r="C260">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D260">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>258</v>
       </c>
@@ -51997,8 +52962,11 @@
       <c r="C261">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D261">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>259</v>
       </c>
@@ -52008,8 +52976,11 @@
       <c r="C262">
         <v>2</v>
       </c>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D262">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>260</v>
       </c>
@@ -52019,8 +52990,11 @@
       <c r="C263">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D263">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>261</v>
       </c>
@@ -52030,8 +53004,11 @@
       <c r="C264">
         <v>2</v>
       </c>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D264">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>262</v>
       </c>
@@ -52041,8 +53018,11 @@
       <c r="C265">
         <v>5</v>
       </c>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D265">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>263</v>
       </c>
@@ -52052,8 +53032,11 @@
       <c r="C266">
         <v>3</v>
       </c>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D266">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>264</v>
       </c>
@@ -52063,8 +53046,11 @@
       <c r="C267">
         <v>4</v>
       </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D267">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>265</v>
       </c>
@@ -52074,8 +53060,11 @@
       <c r="C268">
         <v>2</v>
       </c>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D268">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>266</v>
       </c>
@@ -52085,8 +53074,11 @@
       <c r="C269">
         <v>2</v>
       </c>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D269">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>267</v>
       </c>
@@ -52096,8 +53088,11 @@
       <c r="C270">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>268</v>
       </c>
@@ -52107,8 +53102,11 @@
       <c r="C271">
         <v>4</v>
       </c>
-    </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>269</v>
       </c>
@@ -52118,8 +53116,11 @@
       <c r="C272">
         <v>2</v>
       </c>
-    </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D272">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>270</v>
       </c>
@@ -52129,8 +53130,11 @@
       <c r="C273">
         <v>3</v>
       </c>
-    </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D273">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>271</v>
       </c>
@@ -52140,8 +53144,11 @@
       <c r="C274">
         <v>2</v>
       </c>
-    </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D274">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>272</v>
       </c>
@@ -52151,8 +53158,11 @@
       <c r="C275">
         <v>3</v>
       </c>
-    </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D275">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>273</v>
       </c>
@@ -52162,8 +53172,11 @@
       <c r="C276">
         <v>2</v>
       </c>
-    </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D276">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>274</v>
       </c>
@@ -52173,8 +53186,11 @@
       <c r="C277">
         <v>3</v>
       </c>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D277">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>275</v>
       </c>
@@ -52184,8 +53200,11 @@
       <c r="C278">
         <v>2</v>
       </c>
-    </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D278">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279">
         <v>276</v>
       </c>
@@ -52195,8 +53214,11 @@
       <c r="C279">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D279">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280">
         <v>277</v>
       </c>
@@ -52206,8 +53228,11 @@
       <c r="C280">
         <v>2</v>
       </c>
-    </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D280">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281">
         <v>278</v>
       </c>
@@ -52217,8 +53242,11 @@
       <c r="C281">
         <v>4</v>
       </c>
-    </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D281">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A282">
         <v>279</v>
       </c>
@@ -52228,8 +53256,11 @@
       <c r="C282">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D282">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A283">
         <v>280</v>
       </c>
@@ -52239,8 +53270,11 @@
       <c r="C283">
         <v>5</v>
       </c>
-    </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D283">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284">
         <v>281</v>
       </c>
@@ -52250,8 +53284,11 @@
       <c r="C284">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D284">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285">
         <v>282</v>
       </c>
@@ -52261,8 +53298,11 @@
       <c r="C285">
         <v>5</v>
       </c>
-    </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A286">
         <v>283</v>
       </c>
@@ -52272,8 +53312,11 @@
       <c r="C286">
         <v>2</v>
       </c>
-    </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D286">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A287">
         <v>284</v>
       </c>
@@ -52283,8 +53326,11 @@
       <c r="C287">
         <v>2</v>
       </c>
-    </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D287">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A288">
         <v>285</v>
       </c>
@@ -52294,8 +53340,11 @@
       <c r="C288">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D288">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>286</v>
       </c>
@@ -52305,8 +53354,11 @@
       <c r="C289">
         <v>2</v>
       </c>
-    </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D289">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>287</v>
       </c>
@@ -52316,8 +53368,11 @@
       <c r="C290">
         <v>4</v>
       </c>
-    </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D290">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>288</v>
       </c>
@@ -52327,8 +53382,11 @@
       <c r="C291">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D291">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>289</v>
       </c>
@@ -52338,8 +53396,11 @@
       <c r="C292">
         <v>3</v>
       </c>
-    </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D292">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>290</v>
       </c>
@@ -52349,8 +53410,11 @@
       <c r="C293">
         <v>3</v>
       </c>
-    </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D293">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>291</v>
       </c>
@@ -52360,8 +53424,11 @@
       <c r="C294">
         <v>3</v>
       </c>
-    </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D294">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>292</v>
       </c>
@@ -52371,8 +53438,11 @@
       <c r="C295">
         <v>5</v>
       </c>
-    </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D295">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>293</v>
       </c>
@@ -52382,8 +53452,11 @@
       <c r="C296">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>294</v>
       </c>
@@ -52393,8 +53466,11 @@
       <c r="C297">
         <v>5</v>
       </c>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D297">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>295</v>
       </c>
@@ -52404,8 +53480,11 @@
       <c r="C298">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>296</v>
       </c>
@@ -52415,8 +53494,11 @@
       <c r="C299">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D299">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>297</v>
       </c>
@@ -52426,8 +53508,11 @@
       <c r="C300">
         <v>5</v>
       </c>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D300">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>298</v>
       </c>
@@ -52437,8 +53522,11 @@
       <c r="C301">
         <v>3</v>
       </c>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D301">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>299</v>
       </c>
@@ -52448,8 +53536,11 @@
       <c r="C302">
         <v>3</v>
       </c>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>300</v>
       </c>
@@ -52459,8 +53550,11 @@
       <c r="C303">
         <v>2</v>
       </c>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D303">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>301</v>
       </c>
@@ -71158,18 +72252,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80FE5748-84A2-4EC6-A545-A97A691A5C01}">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -71179,14 +72273,20 @@
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -71196,19 +72296,26 @@
       <c r="C2">
         <v>284295.98810635402</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2">
+        <v>508990.449988999</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="21">
+      <c r="G2" s="21">
         <f>MIN(B$2:B$101) / 1000000</f>
         <v>0.28202274198958704</v>
       </c>
-      <c r="G2" s="21">
+      <c r="H2" s="21">
         <f>MIN(C$2:C$101) / 1000000</f>
         <v>0.28053796423298299</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I2" s="21">
+        <f>MIN(D$2:D$101) / 1000000</f>
+        <v>0.32313806836338299</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -71218,19 +72325,26 @@
       <c r="C3">
         <v>282799.90013618802</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3">
+        <v>463711.13966015499</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="21">
+      <c r="G3" s="21">
         <f>AVERAGE(B$2:B$101) / 1000000</f>
         <v>0.29548078883949458</v>
       </c>
-      <c r="G3" s="21">
+      <c r="H3" s="21">
         <f>AVERAGE(C$2:C$101) / 1000000</f>
         <v>0.2858752801646034</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I3" s="21">
+        <f>AVERAGE(D$2:D$101) / 1000000</f>
+        <v>0.40607526390554638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -71240,19 +72354,26 @@
       <c r="C4">
         <v>287659.500424931</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4">
+        <v>350281.19139834098</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="21">
+      <c r="G4" s="21">
         <f>MAX(B$2:B$101) / 1000000</f>
         <v>0.322229225925522</v>
       </c>
-      <c r="G4" s="21">
+      <c r="H4" s="21">
         <f>MAX(C$2:C$101) / 1000000</f>
         <v>0.29834710725406804</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I4" s="21">
+        <f>MAX(D$2:D$101) / 1000000</f>
+        <v>0.51275612484050404</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -71262,19 +72383,26 @@
       <c r="C5">
         <v>287943.66037014598</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="D5">
+        <v>377090.66802210599</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <f>_xlfn.STDEV.S(B$2:B$101)</f>
         <v>7826.6747082430893</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <f>_xlfn.STDEV.S(C$2:C$101)</f>
         <v>3624.9399148687226</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I5" s="3">
+        <f>_xlfn.STDEV.S(D$2:D$101)</f>
+        <v>40486.227027602312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -71284,8 +72412,11 @@
       <c r="C6">
         <v>284748.31270905602</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>456609.85183036898</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -71295,8 +72426,11 @@
       <c r="C7">
         <v>286858.33388505498</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>414935.79037518002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -71306,8 +72440,11 @@
       <c r="C8">
         <v>284522.496540919</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>385051.724023888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -71317,8 +72454,11 @@
       <c r="C9">
         <v>292220.14269059501</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>346393.12234889303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -71328,8 +72468,11 @@
       <c r="C10">
         <v>282024.58639485203</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>407631.79613689502</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -71339,8 +72482,11 @@
       <c r="C11">
         <v>287998.15525093098</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>430093.32312708098</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -71350,8 +72496,11 @@
       <c r="C12">
         <v>282225.33302390901</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>369819.82100528601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -71361,8 +72510,11 @@
       <c r="C13">
         <v>287798.98560913902</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>418597.34892985399</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -71372,8 +72524,11 @@
       <c r="C14">
         <v>289620.53354934597</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>401360.28671693697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -71383,8 +72538,11 @@
       <c r="C15">
         <v>285271.742470811</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>417455.17904633901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -71394,8 +72552,11 @@
       <c r="C16">
         <v>287938.758603503</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>384839.61798472801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -71405,8 +72566,11 @@
       <c r="C17">
         <v>282860.19530880701</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>323138.068363383</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -71416,8 +72580,11 @@
       <c r="C18">
         <v>283899.35695641598</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>423780.673065549</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -71427,8 +72594,11 @@
       <c r="C19">
         <v>285665.00679526897</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>401990.46644234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -71438,8 +72608,11 @@
       <c r="C20">
         <v>289947.86724185001</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>403382.65989136702</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -71449,8 +72622,11 @@
       <c r="C21">
         <v>283948.02656563499</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>385886.89419584401</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -71460,8 +72636,11 @@
       <c r="C22">
         <v>290346.65753101697</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>467945.568155143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -71471,8 +72650,11 @@
       <c r="C23">
         <v>282555.02606246702</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>403208.982229152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -71482,8 +72664,11 @@
       <c r="C24">
         <v>290096.77995423402</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>405861.95678085502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -71493,8 +72678,11 @@
       <c r="C25">
         <v>280537.96423298301</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>356553.25167855399</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -71504,8 +72692,11 @@
       <c r="C26">
         <v>283086.00934960402</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>325063.90638954798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -71515,8 +72706,11 @@
       <c r="C27">
         <v>283284.06903608103</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>358314.44933990401</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -71526,8 +72720,11 @@
       <c r="C28">
         <v>291857.427746323</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>442675.63111666002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -71537,8 +72734,11 @@
       <c r="C29">
         <v>288646.86552236101</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>370331.38497285702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -71548,8 +72748,11 @@
       <c r="C30">
         <v>284167.54729092203</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>368305.34396397101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -71559,8 +72762,11 @@
       <c r="C31">
         <v>283488.862204234</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>399721.24269155198</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -71570,8 +72776,11 @@
       <c r="C32">
         <v>286550.37791484903</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>414418.97820489999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -71581,8 +72790,11 @@
       <c r="C33">
         <v>283804.31912634999</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>454181.81940879498</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -71592,8 +72804,11 @@
       <c r="C34">
         <v>282115.450564867</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>426127.47514718701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -71603,8 +72818,11 @@
       <c r="C35">
         <v>295720.78545261</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>447730.71119000303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -71614,8 +72832,11 @@
       <c r="C36">
         <v>288246.52784424101</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>390958.57950101502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>36</v>
       </c>
@@ -71625,8 +72846,11 @@
       <c r="C37">
         <v>291059.39820624702</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>434065.55262250401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37</v>
       </c>
@@ -71636,8 +72860,11 @@
       <c r="C38">
         <v>289425.86244486202</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>393239.37845323101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>38</v>
       </c>
@@ -71647,8 +72874,11 @@
       <c r="C39">
         <v>284622.08016451902</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>392737.68632961501</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>39</v>
       </c>
@@ -71658,8 +72888,11 @@
       <c r="C40">
         <v>289129.03655089898</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>488852.63151089399</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>40</v>
       </c>
@@ -71669,8 +72902,11 @@
       <c r="C41">
         <v>286212.01778497902</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>343794.405616078</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>41</v>
       </c>
@@ -71680,8 +72916,11 @@
       <c r="C42">
         <v>285372.47024618601</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>403826.19899231102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>42</v>
       </c>
@@ -71691,8 +72930,11 @@
       <c r="C43">
         <v>285312.48357228201</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>423636.29599957698</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>43</v>
       </c>
@@ -71702,8 +72944,11 @@
       <c r="C44">
         <v>284516.34035997803</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>358356.77126472897</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>44</v>
       </c>
@@ -71713,8 +72958,11 @@
       <c r="C45">
         <v>285521.78559410601</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>411951.11286355997</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>45</v>
       </c>
@@ -71724,8 +72972,11 @@
       <c r="C46">
         <v>296901.07303076697</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>444927.195806743</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>46</v>
       </c>
@@ -71735,8 +72986,11 @@
       <c r="C47">
         <v>284130.52484022197</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>430219.61114154599</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>47</v>
       </c>
@@ -71746,8 +73000,11 @@
       <c r="C48">
         <v>296632.58993687399</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>400999.13704482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>48</v>
       </c>
@@ -71757,8 +73014,11 @@
       <c r="C49">
         <v>288021.61303265602</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>348151.847860404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>49</v>
       </c>
@@ -71768,8 +73028,11 @@
       <c r="C50">
         <v>284688.40552672499</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>440525.22279441199</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>50</v>
       </c>
@@ -71779,8 +73042,11 @@
       <c r="C51">
         <v>298347.10725406802</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>375972.32822760602</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>51</v>
       </c>
@@ -71790,8 +73056,11 @@
       <c r="C52">
         <v>293556.55444895301</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>404331.54565341701</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>52</v>
       </c>
@@ -71801,8 +73070,11 @@
       <c r="C53">
         <v>287455.69713396701</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>344537.818595491</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>53</v>
       </c>
@@ -71812,8 +73084,11 @@
       <c r="C54">
         <v>284680.94093841402</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>441231.13417112699</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>54</v>
       </c>
@@ -71823,8 +73098,11 @@
       <c r="C55">
         <v>293766.09833147802</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>428794.83446456899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>55</v>
       </c>
@@ -71834,8 +73112,11 @@
       <c r="C56">
         <v>282242.58343789499</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>354657.39421499002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>56</v>
       </c>
@@ -71845,8 +73126,11 @@
       <c r="C57">
         <v>282903.44942767499</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>395826.63368271501</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>57</v>
       </c>
@@ -71856,8 +73140,11 @@
       <c r="C58">
         <v>282721.99465858802</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>424688.80369063298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>58</v>
       </c>
@@ -71867,8 +73154,11 @@
       <c r="C59">
         <v>285168.34392867499</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>380287.23575463501</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>59</v>
       </c>
@@ -71878,8 +73168,11 @@
       <c r="C60">
         <v>282953.559733667</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>379831.34030217701</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>60</v>
       </c>
@@ -71889,8 +73182,11 @@
       <c r="C61">
         <v>285808.27557039098</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>325987.73960642098</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>61</v>
       </c>
@@ -71900,8 +73196,11 @@
       <c r="C62">
         <v>289103.85890453501</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>412276.23996035103</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>62</v>
       </c>
@@ -71911,8 +73210,11 @@
       <c r="C63">
         <v>282262.62218095397</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>326651.30634944199</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>63</v>
       </c>
@@ -71922,8 +73224,11 @@
       <c r="C64">
         <v>281803.16645330703</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>409796.44775623397</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>64</v>
       </c>
@@ -71933,8 +73238,11 @@
       <c r="C65">
         <v>282803.61593038699</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>352886.92513500602</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>65</v>
       </c>
@@ -71944,8 +73252,11 @@
       <c r="C66">
         <v>284000.49616877799</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>439956.3690915</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>66</v>
       </c>
@@ -71955,8 +73266,11 @@
       <c r="C67">
         <v>285826.75145196199</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>384555.48668168503</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>67</v>
       </c>
@@ -71966,8 +73280,11 @@
       <c r="C68">
         <v>284927.87989399</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>440115.82228946401</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>68</v>
       </c>
@@ -71977,8 +73294,11 @@
       <c r="C69">
         <v>285746.54914140201</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>406002.60770268401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>69</v>
       </c>
@@ -71988,8 +73308,11 @@
       <c r="C70">
         <v>285232.22788591601</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>386649.93338320497</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>70</v>
       </c>
@@ -71999,8 +73322,11 @@
       <c r="C71">
         <v>284188.73988392402</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>378720.64453330199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>71</v>
       </c>
@@ -72010,8 +73336,11 @@
       <c r="C72">
         <v>282471.91159661498</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>363751.46904386202</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>72</v>
       </c>
@@ -72021,8 +73350,11 @@
       <c r="C73">
         <v>285127.72184137697</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>394166.716362159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>73</v>
       </c>
@@ -72032,8 +73364,11 @@
       <c r="C74">
         <v>284218.88591432502</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>438210.30339395202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>74</v>
       </c>
@@ -72043,8 +73378,11 @@
       <c r="C75">
         <v>286354.91548579501</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>477261.410310507</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>75</v>
       </c>
@@ -72054,8 +73392,11 @@
       <c r="C76">
         <v>283900.46881469298</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>468466.67306078703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>76</v>
       </c>
@@ -72065,8 +73406,11 @@
       <c r="C77">
         <v>283392.48290891701</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>436645.75534521003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>77</v>
       </c>
@@ -72076,8 +73420,11 @@
       <c r="C78">
         <v>281807.83952147298</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>416972.953085171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>78</v>
       </c>
@@ -72087,8 +73434,11 @@
       <c r="C79">
         <v>290101.862662345</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>340322.01530173299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>79</v>
       </c>
@@ -72098,8 +73448,11 @@
       <c r="C80">
         <v>282558.67965691298</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>424411.10578025703</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>80</v>
       </c>
@@ -72109,8 +73462,11 @@
       <c r="C81">
         <v>283411.73480799003</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>383657.66919887799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>81</v>
       </c>
@@ -72120,8 +73476,11 @@
       <c r="C82">
         <v>283891.16802235902</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>417469.27317389502</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
@@ -72131,8 +73490,11 @@
       <c r="C83">
         <v>281560.63453652197</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>444409.568942855</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>83</v>
       </c>
@@ -72142,8 +73504,11 @@
       <c r="C84">
         <v>283881.880285686</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>384107.2324407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>84</v>
       </c>
@@ -72153,8 +73518,11 @@
       <c r="C85">
         <v>283971.888454645</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>419854.93671215401</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>85</v>
       </c>
@@ -72164,8 +73532,11 @@
       <c r="C86">
         <v>281080.04274288099</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>453630.255424865</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>86</v>
       </c>
@@ -72175,8 +73546,11 @@
       <c r="C87">
         <v>286040.24176107597</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>348137.57924591901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>87</v>
       </c>
@@ -72186,8 +73560,11 @@
       <c r="C88">
         <v>284296.46612899698</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>512756.12484050402</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
@@ -72197,8 +73574,11 @@
       <c r="C89">
         <v>290310.22731414798</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>371160.41856436298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
@@ -72208,8 +73588,11 @@
       <c r="C90">
         <v>282964.25236248702</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>435990.61505978799</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>90</v>
       </c>
@@ -72219,8 +73602,11 @@
       <c r="C91">
         <v>284401.77463239501</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>410449.22102575499</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
@@ -72230,8 +73616,11 @@
       <c r="C92">
         <v>282705.38799793803</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>463690.45205269899</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
@@ -72241,8 +73630,11 @@
       <c r="C93">
         <v>284945.60879038298</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>454559.03731741599</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
       </c>
@@ -72252,8 +73644,11 @@
       <c r="C94">
         <v>288239.79796159599</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>394446.31196281</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>94</v>
       </c>
@@ -72263,8 +73658,11 @@
       <c r="C95">
         <v>285449.263870992</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>436038.86015503999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>95</v>
       </c>
@@ -72274,8 +73672,11 @@
       <c r="C96">
         <v>285535.69594533701</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>398297.89435770398</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>96</v>
       </c>
@@ -72285,8 +73686,11 @@
       <c r="C97">
         <v>282198.99677574501</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>418406.49848072499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>97</v>
       </c>
@@ -72296,8 +73700,11 @@
       <c r="C98">
         <v>286608.04110691202</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>443390.89703773003</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>98</v>
       </c>
@@ -72307,8 +73714,11 @@
       <c r="C99">
         <v>286730.70483392302</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>388976.373974605</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>99</v>
       </c>
@@ -72318,8 +73728,11 @@
       <c r="C100">
         <v>284470.197361789</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>390357.97475178598</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>100</v>
       </c>
@@ -72328,6 +73741,9 @@
       </c>
       <c r="C101">
         <v>283101.495846993</v>
+      </c>
+      <c r="D101">
+        <v>466049.80128008698</v>
       </c>
     </row>
   </sheetData>
